--- a/dataset/fruits_list.xlsx
+++ b/dataset/fruits_list.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Quantity</t>
   </si>

--- a/dataset/fruits_list.xlsx
+++ b/dataset/fruits_list.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Quantity</t>
   </si>

--- a/dataset/fruits_list.xlsx
+++ b/dataset/fruits_list.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\eclipse-workspace\Introduction\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C0A629-A9B3-4BA8-8F1A-2253D17D9E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364D88F6-6110-4BE4-83CB-CE7746AA4EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E216B34-2A17-4A6B-AE9D-A1EF329DDAAE}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Quantity</t>
   </si>
@@ -70,16 +70,12 @@
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>120</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -452,13 +448,13 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.33203125"/>
-    <col min="4" max="4" customWidth="true" width="13.6640625"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -482,12 +478,10 @@
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="1">
         <f>C2*B2</f>
-        <v>240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">

--- a/dataset/fruits_list.xlsx
+++ b/dataset/fruits_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\eclipse-workspace\Introduction\dataset\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Quantity</t>
   </si>
@@ -70,12 +70,16 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>120</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -453,8 +457,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.33203125"/>
+    <col min="4" max="4" customWidth="true" width="13.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -478,7 +482,9 @@
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="D2" s="1">
         <f>C2*B2</f>
         <v>0</v>
